--- a/metrics/R2/Angina.xlsx
+++ b/metrics/R2/Angina.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9929102299609598</v>
+        <v>0.9929497140304089</v>
       </c>
       <c r="C3" t="n">
-        <v>0.993410634216619</v>
+        <v>0.9931427002564103</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9930384751687078</v>
+        <v>0.9929636102501272</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9953809278660053</v>
+        <v>0.9953808967668092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9953810044210167</v>
+        <v>0.9953808650550096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9953809270550438</v>
+        <v>0.995380909138542</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9850233978716584</v>
+        <v>0.9860014569604251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9852041614830515</v>
+        <v>0.9849701780848438</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9858430824964121</v>
+        <v>0.9854476329559695</v>
       </c>
     </row>
   </sheetData>
